--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cthrc1</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H2">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04009133333333333</v>
+        <v>8.212806333333333</v>
       </c>
       <c r="N2">
-        <v>0.120274</v>
+        <v>24.638419</v>
       </c>
       <c r="O2">
-        <v>0.004449173663854228</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="P2">
-        <v>0.004449173663854228</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="Q2">
-        <v>0.01496549336333333</v>
+        <v>9.608914969947223</v>
       </c>
       <c r="R2">
-        <v>0.13468944027</v>
+        <v>86.48023472952501</v>
       </c>
       <c r="S2">
-        <v>1.446939988507743E-05</v>
+        <v>0.008956928346359472</v>
       </c>
       <c r="T2">
-        <v>1.446939988507744E-05</v>
+        <v>0.00895692834635947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H3">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,60 +614,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.212806333333333</v>
+        <v>1.053359333333333</v>
       </c>
       <c r="N3">
-        <v>24.638419</v>
+        <v>3.160078</v>
       </c>
       <c r="O3">
-        <v>0.9114239564145669</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="P3">
-        <v>0.911423956414567</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="Q3">
-        <v>3.065717412138333</v>
+        <v>1.232421642005556</v>
       </c>
       <c r="R3">
-        <v>27.59145670924499</v>
+        <v>11.09179477805</v>
       </c>
       <c r="S3">
-        <v>0.002964091466543805</v>
+        <v>0.001148799044894356</v>
       </c>
       <c r="T3">
-        <v>0.002964091466543806</v>
+        <v>0.001148799044894356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3732849999999999</v>
+        <v>113.5508423333333</v>
       </c>
       <c r="H4">
-        <v>1.119855</v>
+        <v>340.652527</v>
       </c>
       <c r="I4">
-        <v>0.003252154439964676</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J4">
-        <v>0.003252154439964676</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7580640000000001</v>
+        <v>8.212806333333333</v>
       </c>
       <c r="N4">
-        <v>2.274192</v>
+        <v>24.638419</v>
       </c>
       <c r="O4">
-        <v>0.08412686992157885</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="P4">
-        <v>0.08412686992157886</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="Q4">
-        <v>0.28297392024</v>
+        <v>932.5710770705347</v>
       </c>
       <c r="R4">
-        <v>2.54676528216</v>
+        <v>8393.139693634812</v>
       </c>
       <c r="S4">
-        <v>0.0002735935735357934</v>
+        <v>0.8692940192865433</v>
       </c>
       <c r="T4">
-        <v>0.0002735935735357935</v>
+        <v>0.8692940192865432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,72 +726,72 @@
         <v>340.652527</v>
       </c>
       <c r="I5">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J5">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04009133333333333</v>
+        <v>1.053359333333333</v>
       </c>
       <c r="N5">
-        <v>0.120274</v>
+        <v>3.160078</v>
       </c>
       <c r="O5">
-        <v>0.004449173663854228</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="P5">
-        <v>0.004449173663854228</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="Q5">
-        <v>4.552404670266444</v>
+        <v>119.6098395796784</v>
       </c>
       <c r="R5">
-        <v>40.97164203239799</v>
+        <v>1076.488556217106</v>
       </c>
       <c r="S5">
-        <v>0.004401496296417963</v>
+        <v>0.1114940413132426</v>
       </c>
       <c r="T5">
-        <v>0.004401496296417963</v>
+        <v>0.1114940413132426</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>113.5508423333333</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H6">
-        <v>340.652527</v>
+        <v>3.162818</v>
       </c>
       <c r="I6">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J6">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,54 +806,54 @@
         <v>24.638419</v>
       </c>
       <c r="O6">
-        <v>0.9114239564145669</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="P6">
-        <v>0.911423956414567</v>
+        <v>0.886321983523066</v>
       </c>
       <c r="Q6">
-        <v>932.5710770705347</v>
+        <v>8.658537233860221</v>
       </c>
       <c r="R6">
-        <v>8393.139693634812</v>
+        <v>77.92683510474198</v>
       </c>
       <c r="S6">
-        <v>0.9016571326977898</v>
+        <v>0.00807103589016331</v>
       </c>
       <c r="T6">
-        <v>0.9016571326977899</v>
+        <v>0.00807103589016331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>113.5508423333333</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H7">
-        <v>340.652527</v>
+        <v>3.162818</v>
       </c>
       <c r="I7">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J7">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,400 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7580640000000001</v>
+        <v>1.053359333333333</v>
       </c>
       <c r="N7">
-        <v>2.274192</v>
+        <v>3.160078</v>
       </c>
       <c r="O7">
-        <v>0.08412686992157885</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="P7">
-        <v>0.08412686992157886</v>
+        <v>0.113678016476934</v>
       </c>
       <c r="Q7">
-        <v>86.07880574257599</v>
+        <v>1.110527953311556</v>
       </c>
       <c r="R7">
-        <v>774.709251683184</v>
+        <v>9.994751579803999</v>
       </c>
       <c r="S7">
-        <v>0.0832253659589218</v>
+        <v>0.00103517611879705</v>
       </c>
       <c r="T7">
-        <v>0.08322536595892181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.403538</v>
-      </c>
-      <c r="I8">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J8">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04009133333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.120274</v>
-      </c>
-      <c r="O8">
-        <v>0.004449173663854228</v>
-      </c>
-      <c r="P8">
-        <v>0.004449173663854228</v>
-      </c>
-      <c r="Q8">
-        <v>0.03212034771244444</v>
-      </c>
-      <c r="R8">
-        <v>0.289083129412</v>
-      </c>
-      <c r="S8">
-        <v>3.105558528646946E-05</v>
-      </c>
-      <c r="T8">
-        <v>3.105558528646946E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H9">
-        <v>2.403538</v>
-      </c>
-      <c r="I9">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J9">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.212806333333333</v>
-      </c>
-      <c r="N9">
-        <v>24.638419</v>
-      </c>
-      <c r="O9">
-        <v>0.9114239564145669</v>
-      </c>
-      <c r="P9">
-        <v>0.911423956414567</v>
-      </c>
-      <c r="Q9">
-        <v>6.579930702935778</v>
-      </c>
-      <c r="R9">
-        <v>59.219376326422</v>
-      </c>
-      <c r="S9">
-        <v>0.006361811551775691</v>
-      </c>
-      <c r="T9">
-        <v>0.006361811551775691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H10">
-        <v>2.403538</v>
-      </c>
-      <c r="I10">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J10">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.7580640000000001</v>
-      </c>
-      <c r="N10">
-        <v>2.274192</v>
-      </c>
-      <c r="O10">
-        <v>0.08412686992157885</v>
-      </c>
-      <c r="P10">
-        <v>0.08412686992157886</v>
-      </c>
-      <c r="Q10">
-        <v>0.6073452101440001</v>
-      </c>
-      <c r="R10">
-        <v>5.466106891296</v>
-      </c>
-      <c r="S10">
-        <v>0.0005872122288591595</v>
-      </c>
-      <c r="T10">
-        <v>0.0005872122288591595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.166583</v>
-      </c>
-      <c r="I11">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J11">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.04009133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.120274</v>
-      </c>
-      <c r="O11">
-        <v>0.004449173663854228</v>
-      </c>
-      <c r="P11">
-        <v>0.004449173663854228</v>
-      </c>
-      <c r="Q11">
-        <v>0.002226178193555555</v>
-      </c>
-      <c r="R11">
-        <v>0.020035603742</v>
-      </c>
-      <c r="S11">
-        <v>2.15238226471807E-06</v>
-      </c>
-      <c r="T11">
-        <v>2.15238226471807E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.166583</v>
-      </c>
-      <c r="I12">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J12">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.212806333333333</v>
-      </c>
-      <c r="N12">
-        <v>24.638419</v>
-      </c>
-      <c r="O12">
-        <v>0.9114239564145669</v>
-      </c>
-      <c r="P12">
-        <v>0.911423956414567</v>
-      </c>
-      <c r="Q12">
-        <v>0.4560379724752222</v>
-      </c>
-      <c r="R12">
-        <v>4.104341752277</v>
-      </c>
-      <c r="S12">
-        <v>0.0004409206984576278</v>
-      </c>
-      <c r="T12">
-        <v>0.0004409206984576278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.166583</v>
-      </c>
-      <c r="I13">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J13">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7580640000000001</v>
-      </c>
-      <c r="N13">
-        <v>2.274192</v>
-      </c>
-      <c r="O13">
-        <v>0.08412686992157885</v>
-      </c>
-      <c r="P13">
-        <v>0.08412686992157886</v>
-      </c>
-      <c r="Q13">
-        <v>0.042093525104</v>
-      </c>
-      <c r="R13">
-        <v>0.378841725936</v>
-      </c>
-      <c r="S13">
-        <v>4.069816026209919E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.069816026209919E-05</v>
+        <v>0.00103517611879705</v>
       </c>
     </row>
   </sheetData>
